--- a/BalanceSheet/WAB_bal.xlsx
+++ b/BalanceSheet/WAB_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-11200000.0</v>
+        <v>1672000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>173000000.0</v>
+        <v>1642000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>38100000.0</v>
+        <v>1780000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-6800000.0</v>
+        <v>1800000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-23500000.0</v>
+        <v>1786000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1773100000.0</v>
@@ -1925,16 +1925,16 @@
         <v>47000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-65600000.0</v>
+        <v>909000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-54900000.0</v>
+        <v>962000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-88300000.0</v>
+        <v>1006000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-60200000.0</v>
+        <v>1087000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1157500000.0</v>
@@ -3011,7 +3011,7 @@
         <v>186400000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>29400000.0</v>
+        <v>168000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>163000000.0</v>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>3439000000.0</v>
+        <v>3792900000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>3936000000.0</v>
@@ -4674,7 +4674,7 @@
         <v>4401000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>3880000000.0</v>
+        <v>3825100000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>4157900000.0</v>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>3923000000.0</v>
+        <v>4276900000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>4535000000.0</v>
@@ -4801,7 +4801,7 @@
         <v>5017000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4484000000.0</v>
+        <v>4429300000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>4745300000.0</v>
